--- a/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_2_2025.xlsx
+++ b/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_2_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Robotics_MEXE_3rdYearCourse\MexE_409_Robotics_2\Laboratory_Activities\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBFECB9-1126-4E46-8A75-8854D823FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA73C8A-A0F6-415B-9C16-CC36500A8437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D65C2CE3-8512-4348-A0AC-AC1794676AD7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FK!$A$1:$R$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FK!$A$1:$R$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>COLLEGE OF ENGINEERING</t>
   </si>
   <si>
     <t>BACHELOR OF SCIENCE IN MECHATRONICS ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBOTICS 2: LABORATORY 1 </t>
   </si>
   <si>
     <r>
@@ -63,13 +60,7 @@
     <t>3-DOF SPARTAN Robotkit Forward Kinematics</t>
   </si>
   <si>
-    <t>Submission Date: February 19, 2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Materials: </t>
-  </si>
-  <si>
-    <t>1. 3-DOF SPARTAN Robotkit assembled</t>
   </si>
   <si>
     <t>2. Arduino UNO</t>
@@ -92,25 +83,7 @@
     <t>5. Answer the questions below and write them in your repository ReadMe file</t>
   </si>
   <si>
-    <t>a. What is forward kinematics, and why is it important in robotic systems?</t>
-  </si>
-  <si>
-    <t>b. Explain the significance of the Homogeneous Transformation Matrix in robotic kinematics.</t>
-  </si>
-  <si>
-    <t>c. In Test 1, what specific behaviors should be observed during the calibration of each joint and gripper?</t>
-  </si>
-  <si>
-    <t>d. How does the consecutive movement of joints in Test 2 differ from Test 1? What are the advantages of testing consecutive movements?</t>
-  </si>
-  <si>
-    <t>e. What is the expected behavior of the robot when implementing Test 3? How does the potentiometer influence the servo motor positions?</t>
-  </si>
-  <si>
     <t>Conclusion:</t>
-  </si>
-  <si>
-    <t>3. 3 Potentiometers: 10K ohms and one joystick</t>
   </si>
   <si>
     <t xml:space="preserve">Procedure: </t>
@@ -134,45 +107,14 @@
     </r>
   </si>
   <si>
-    <t>4. Take the measurement of the link lengths(a1,a2,a3) of the 3-DOF SPARTAN Robotkit.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Create a MATLAB Robotics toolbox program of 3-DOF SPARTAN Robotkit. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Post the pictures in Github Readme file)</t>
-    </r>
-  </si>
-  <si>
-    <t>6. Assemble the wiring of the 3-DOF SPARTAN Robotkit and perform the following tests:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Write this laboratory instructions and procedures in the Github repository ReadMe file.
-Repository title:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Robotics2_FKSPARTANRobotkit_Group#_Laboratory1_2025</t>
-    </r>
-  </si>
-  <si>
-    <t>c. Test 3: Assemble the potentiometer with the 3-DOF SPARTAN Robotkit then make the assembly below and program from the link applicable for 4 servo motors: https://github.com/MikkoDT/Robotics_MEXE_3rdYearCourse/tree/main/MexE_409_Robotics_2/SpartanRobotkit_Arduino/Potentiometer_ServoMotor
-Provide your code written in your repository ReadmeFile. Compare and take the pictures of the robot with the MATLAB simulation and post it in your ReadMe file.</t>
+    <t>b. Test 2: Calibration of joints but consecutive movement of joints. Compare and take the pictures of the robot with the MATLAB simulation and post it in your ReadMe file. 5 comparisons. Get the code from this link:
+https://github.com/MikkoDT/Robotics_MEXE_3rdYearCourse/tree/main/MexE_409_Robotics_2/SpartanRobotkit_Arduino/Four_servo_consecutive</t>
+  </si>
+  <si>
+    <t>ROBOTICS 2: LABORATORY 2</t>
+  </si>
+  <si>
+    <t>Submission Date: March 4, 2025</t>
   </si>
   <si>
     <r>
@@ -192,12 +134,64 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Perform Forward Kinematics experimentation on 3-DOF Spartan Robotkit.</t>
+      <t xml:space="preserve"> Perform Forward Kinematics experimentation on 6-DOF Spartan Robotkit.</t>
     </r>
   </si>
   <si>
-    <t>b. Test 2: Calibration of joints but consecutive movement of joints. Compare and take the pictures of the robot with the MATLAB simulation and post it in your ReadMe file. 5 comparisons. Get the code from this link:
-https://github.com/MikkoDT/Robotics_MEXE_3rdYearCourse/tree/main/MexE_409_Robotics_2/SpartanRobotkit_Arduino/Four_servo_consecutive</t>
+    <t>1. 6-DOF SPARTAN Robotkit assembled</t>
+  </si>
+  <si>
+    <t>3. 3 Potentiometers: 10K ohms and 3 joysticks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Write this laboratory instructions and procedures in the Github repository ReadMe file.
+Repository title:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Robotics2_FKSPARTANRobotkit_Group#_Laboratory2_2025</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Take the measurement of the link lengths(a1,a2,a3,a4,a5,a6) of the 6-DOF SPARTAN Robotkit.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Create a MATLAB Robotics toolbox program of 6-DOF SPARTAN Robotkit. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Post the pictures in Github Readme file)</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Assemble the wiring of the 6-DOF SPARTAN Robotkit and perform the following tests:</t>
+  </si>
+  <si>
+    <t>c. Test 3: Assemble the potentiometer with the 6-DOF SPARTAN Robotkit then make the assembly below and program from the link applicable for 7 servo motors: https://github.com/MikkoDT/Robotics_MEXE_3rdYearCourse/tree/main/MexE_409_Robotics_2/SpartanRobotkit_Arduino/Potentiometer_ServoMotor
+Provide your code written in your repository ReadmeFile. Compare and take the pictures of the robot with the MATLAB simulation and post it in your ReadMe file.</t>
+  </si>
+  <si>
+    <t>a. In Test 1, what specific behaviors should be observed during the calibration of each joint and gripper?</t>
+  </si>
+  <si>
+    <t>b. How does the consecutive movement of joints in Test 2 differ from Test 1? What are the advantages of testing consecutive movements?</t>
+  </si>
+  <si>
+    <t>c. What is the expected behavior of the robot when implementing Test 3? How does the potentiometer influence the servo motor positions?</t>
   </si>
 </sst>
 </file>
@@ -398,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -429,16 +423,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -478,9 +502,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -490,9 +511,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -522,36 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,80 +1040,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB94D5A1-558C-436F-904F-23DEAE181BE7}">
-  <dimension ref="A12:S49"/>
+  <dimension ref="A12:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B39" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:R44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
+      <c r="A14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1147,26 +1135,26 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="62"/>
+      <c r="A16" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
@@ -1190,46 +1178,46 @@
     </row>
     <row r="18" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
-      <c r="B18" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
+      <c r="B18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="B19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
@@ -1254,24 +1242,24 @@
     </row>
     <row r="21" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
-      <c r="B21" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="B21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
       <c r="R21" s="15"/>
     </row>
     <row r="22" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
@@ -1297,7 +1285,7 @@
     <row r="23" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1318,14 +1306,14 @@
     </row>
     <row r="24" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
-      <c r="B24" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="B24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -1340,14 +1328,14 @@
     </row>
     <row r="25" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
-      <c r="B25" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="B25" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1362,21 +1350,21 @@
     </row>
     <row r="26" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -1384,14 +1372,14 @@
     </row>
     <row r="27" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="B27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -1406,14 +1394,14 @@
     </row>
     <row r="28" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
+      <c r="B28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -1428,14 +1416,14 @@
     </row>
     <row r="29" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
-      <c r="B29" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="B29" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1450,60 +1438,60 @@
     </row>
     <row r="30" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
-      <c r="B30" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
+      <c r="B30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
-      <c r="B31" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="B31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
       <c r="R31" s="15"/>
     </row>
     <row r="32" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
-      <c r="B32" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
+      <c r="B32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -1512,366 +1500,344 @@
     </row>
     <row r="33" spans="1:18" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
-      <c r="B33" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
+      <c r="B33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
       <c r="R33" s="15"/>
     </row>
     <row r="34" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
-      <c r="B34" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
+      <c r="B34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
       <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
-      <c r="B35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
+      <c r="B35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
       <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
-      <c r="B36" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
+      <c r="B36" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="32"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="40"/>
     </row>
     <row r="38" spans="1:18" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
-    </row>
-    <row r="39" spans="1:18" ht="295" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="28"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" ht="302" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
-      <c r="B40" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
-    </row>
-    <row r="41" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="44"/>
-    </row>
-    <row r="42" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B40" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
+    </row>
+    <row r="41" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="12"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="50"/>
+    </row>
+    <row r="42" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="18"/>
-    </row>
-    <row r="43" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="12"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="44"/>
-    </row>
-    <row r="44" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="12"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="44"/>
-    </row>
-    <row r="45" spans="1:18" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="8"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
-    </row>
-    <row r="46" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="50"/>
-    </row>
-    <row r="47" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="53"/>
-    </row>
-    <row r="48" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="3"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="50"/>
+    </row>
+    <row r="43" spans="1:18" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="8"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="53"/>
+    </row>
+    <row r="44" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
+    </row>
+    <row r="45" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="59"/>
+    </row>
+    <row r="46" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
+    <mergeCell ref="C39:R39"/>
+    <mergeCell ref="C38:R38"/>
+    <mergeCell ref="C37:R37"/>
+    <mergeCell ref="A37:B39"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="B46:N46"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="C41:R41"/>
+    <mergeCell ref="C42:R42"/>
+    <mergeCell ref="C43:R43"/>
+    <mergeCell ref="A44:R45"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="A16:R16"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B30:O30"/>
@@ -1881,29 +1847,6 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B26:N26"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B36:O36"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="C39:R39"/>
-    <mergeCell ref="C38:R38"/>
-    <mergeCell ref="C37:R37"/>
-    <mergeCell ref="A37:B39"/>
-    <mergeCell ref="B49:O49"/>
-    <mergeCell ref="B48:N48"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="C41:R41"/>
-    <mergeCell ref="C43:R43"/>
-    <mergeCell ref="C44:R44"/>
-    <mergeCell ref="C45:R45"/>
-    <mergeCell ref="A46:R47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>

--- a/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_2_2025.xlsx
+++ b/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_2_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Robotics_MEXE_3rdYearCourse\MexE_409_Robotics_2\Laboratory_Activities\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA73C8A-A0F6-415B-9C16-CC36500A8437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF56004-D9E4-4D69-8D75-C784BCC764A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D65C2CE3-8512-4348-A0AC-AC1794676AD7}"/>
   </bookViews>
@@ -185,13 +185,13 @@
 Provide your code written in your repository ReadmeFile. Compare and take the pictures of the robot with the MATLAB simulation and post it in your ReadMe file.</t>
   </si>
   <si>
-    <t>a. In Test 1, what specific behaviors should be observed during the calibration of each joint and gripper?</t>
-  </si>
-  <si>
-    <t>b. How does the consecutive movement of joints in Test 2 differ from Test 1? What are the advantages of testing consecutive movements?</t>
-  </si>
-  <si>
-    <t>c. What is the expected behavior of the robot when implementing Test 3? How does the potentiometer influence the servo motor positions?</t>
+    <t>a. In Test 1, what specific behaviors should be observed during the calibration of each joint and gripper of 6-DOF manipulator?</t>
+  </si>
+  <si>
+    <t>b. How does the consecutive movement of joints in Test 2 differ from Test 1  of 6-DOF manipulator? What are the advantages of testing consecutive movements?</t>
+  </si>
+  <si>
+    <t>c. What is the expected behavior of the robot when implementing Test 3? How does the potentiometer influence the servo motor positions of 6-DOF manipulator?</t>
   </si>
 </sst>
 </file>
@@ -427,119 +427,119 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,77 +1043,77 @@
   <dimension ref="A12:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1135,26 +1135,26 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="58"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
@@ -1178,46 +1178,46 @@
     </row>
     <row r="18" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
       <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
       <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
@@ -1242,24 +1242,24 @@
     </row>
     <row r="21" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="15"/>
     </row>
     <row r="22" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
@@ -1306,14 +1306,14 @@
     </row>
     <row r="24" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -1328,14 +1328,14 @@
     </row>
     <row r="25" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1350,21 +1350,21 @@
     </row>
     <row r="26" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -1372,14 +1372,14 @@
     </row>
     <row r="27" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -1394,14 +1394,14 @@
     </row>
     <row r="28" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -1416,14 +1416,14 @@
     </row>
     <row r="29" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1438,60 +1438,60 @@
     </row>
     <row r="30" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
       <c r="R31" s="15"/>
     </row>
     <row r="32" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -1500,322 +1500,342 @@
     </row>
     <row r="33" spans="1:18" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
       <c r="R33" s="15"/>
     </row>
     <row r="34" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
       <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
       <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="37" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="40"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="28"/>
     </row>
     <row r="38" spans="1:18" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="37" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="39"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="27"/>
     </row>
     <row r="39" spans="1:18" ht="302" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="34" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="36"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="24"/>
     </row>
     <row r="40" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="48"/>
-    </row>
-    <row r="41" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="37"/>
+    </row>
+    <row r="41" spans="1:18" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="50"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="40"/>
     </row>
     <row r="42" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="20"/>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="50"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="40"/>
     </row>
     <row r="43" spans="1:18" ht="37" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="53"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
     </row>
     <row r="44" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="46"/>
     </row>
     <row r="45" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="59"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="49"/>
     </row>
     <row r="46" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="B35:Q35"/>
     <mergeCell ref="C39:R39"/>
     <mergeCell ref="C38:R38"/>
     <mergeCell ref="C37:R37"/>
@@ -1827,26 +1847,6 @@
     <mergeCell ref="C42:R42"/>
     <mergeCell ref="C43:R43"/>
     <mergeCell ref="A44:R45"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B36:O36"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>

--- a/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_2_2025.xlsx
+++ b/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_2_2025.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Robotics_MEXE_3rdYearCourse\MexE_409_Robotics_2\Laboratory_Activities\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF56004-D9E4-4D69-8D75-C784BCC764A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91315CB-CD73-40AF-A1D0-F204B3E80260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D65C2CE3-8512-4348-A0AC-AC1794676AD7}"/>
+    <workbookView minimized="1" xWindow="30450" yWindow="1650" windowWidth="15375" windowHeight="7755" xr2:uid="{D65C2CE3-8512-4348-A0AC-AC1794676AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="FK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FK!$A$1:$R$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FK!$A$1:$R$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,9 +57,6 @@
     </r>
   </si>
   <si>
-    <t>3-DOF SPARTAN Robotkit Forward Kinematics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Materials: </t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>c. What is the expected behavior of the robot when implementing Test 3? How does the potentiometer influence the servo motor positions of 6-DOF manipulator?</t>
+  </si>
+  <si>
+    <t>6-DOF SPARTAN Robotkit Forward Kinematics</t>
   </si>
 </sst>
 </file>
@@ -427,6 +427,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -466,9 +502,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -478,9 +511,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -510,36 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,80 +1040,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB94D5A1-558C-436F-904F-23DEAE181BE7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A12:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1135,26 +1138,26 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
+      <c r="A16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
@@ -1178,46 +1181,46 @@
     </row>
     <row r="18" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
-      <c r="B18" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
+      <c r="B18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
@@ -1242,24 +1245,24 @@
     </row>
     <row r="21" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
-      <c r="B21" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="B21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
       <c r="R21" s="15"/>
     </row>
     <row r="22" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
@@ -1285,7 +1288,7 @@
     <row r="23" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1306,14 +1309,14 @@
     </row>
     <row r="24" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
-      <c r="B24" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -1328,14 +1331,14 @@
     </row>
     <row r="25" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
-      <c r="B25" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1350,21 +1353,21 @@
     </row>
     <row r="26" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
+      <c r="B26" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -1372,14 +1375,14 @@
     </row>
     <row r="27" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -1394,14 +1397,14 @@
     </row>
     <row r="28" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -1416,14 +1419,14 @@
     </row>
     <row r="29" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
-      <c r="B29" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="B29" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1438,60 +1441,60 @@
     </row>
     <row r="30" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
-      <c r="B30" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
+      <c r="B30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
-      <c r="B31" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="B31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
       <c r="R31" s="15"/>
     </row>
     <row r="32" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
-      <c r="B32" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
+      <c r="B32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -1500,342 +1503,322 @@
     </row>
     <row r="33" spans="1:18" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
-      <c r="B33" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
+      <c r="B33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
       <c r="R33" s="15"/>
     </row>
     <row r="34" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
-      <c r="B34" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="B34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
       <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
-      <c r="B35" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
+      <c r="B35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
       <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
-      <c r="B36" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
+      <c r="B36" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="28"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="40"/>
     </row>
     <row r="38" spans="1:18" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="27"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="39"/>
     </row>
     <row r="39" spans="1:18" ht="302" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="24"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
-      <c r="B40" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+      <c r="B40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
     </row>
     <row r="41" spans="1:18" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
+      <c r="C41" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="50"/>
     </row>
     <row r="42" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="20"/>
-      <c r="C42" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
+      <c r="C42" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="50"/>
     </row>
     <row r="43" spans="1:18" ht="37" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
+      <c r="C43" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="46"/>
+      <c r="A44" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
     </row>
     <row r="45" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="49"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="59"/>
     </row>
     <row r="46" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B36:O36"/>
-    <mergeCell ref="B35:Q35"/>
     <mergeCell ref="C39:R39"/>
     <mergeCell ref="C38:R38"/>
     <mergeCell ref="C37:R37"/>
@@ -1847,9 +1830,29 @@
     <mergeCell ref="C42:R42"/>
     <mergeCell ref="C43:R43"/>
     <mergeCell ref="A44:R45"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>